--- a/Data/roads_data.xlsx
+++ b/Data/roads_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuykovochka\YandexDisk-zhuykovochka\SUAI\ТЕХ_ПРОГ\LR_3\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B56BFA3-7A71-4D25-BB53-94A0D6D73D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,24 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +64,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +352,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/roads_data.xlsx
+++ b/Data/roads_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuykovochka\YandexDisk-zhuykovochka\SUAI\ТЕХ_ПРОГ\LR_3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B56BFA3-7A71-4D25-BB53-94A0D6D73D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39595E5-DB62-4958-9D2B-06CEBB8B8798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="7">
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>% плохих дорог</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +67,14 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,18 +97,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,44 +393,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C2" s="5">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C3" s="5">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C4" s="5">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C5" s="5">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C8" s="5">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C9" s="5">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="5">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C19" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C20" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C21" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C22" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C23" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C24" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C25" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C26" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C27" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C28" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C29" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C30" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C32" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C33" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C34" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C35" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C36" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C37" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C38" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C39" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C40" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C41" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C42" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C43" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C44" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C45" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C46" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C47" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C48" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C49" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C50" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C51" s="5">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C52" s="5">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C53" s="5">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2009</v>
+      </c>
+      <c r="C54" s="5">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C55" s="5">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C56" s="5">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C57" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C58" s="5">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C59" s="5">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C60" s="5">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C61" s="5">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C62" s="5">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C63" s="5">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C64" s="5">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="5">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/roads_data.xlsx
+++ b/Data/roads_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Рабочий стол\ТП\StatysticalAnalysisApp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39595E5-DB62-4958-9D2B-06CEBB8B8798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D774009-8C82-43D1-B6DA-21148B2AE03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -106,13 +106,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -437,7 +437,7 @@
         <v>2006</v>
       </c>
       <c r="C3" s="5">
-        <v>24.2</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -448,7 +448,7 @@
         <v>2007</v>
       </c>
       <c r="C4" s="5">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -459,7 +459,7 @@
         <v>2008</v>
       </c>
       <c r="C5" s="5">
-        <v>21.9</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -470,7 +470,7 @@
         <v>2009</v>
       </c>
       <c r="C6" s="5">
-        <v>20.8</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -481,7 +481,7 @@
         <v>2010</v>
       </c>
       <c r="C7" s="5">
-        <v>19.7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C8" s="5">
-        <v>18.600000000000001</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -503,7 +503,7 @@
         <v>2012</v>
       </c>
       <c r="C9" s="5">
-        <v>17.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -514,7 +514,7 @@
         <v>2013</v>
       </c>
       <c r="C10" s="5">
-        <v>16.399999999999999</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -525,7 +525,7 @@
         <v>2014</v>
       </c>
       <c r="C11" s="5">
-        <v>15.3</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -536,7 +536,7 @@
         <v>2015</v>
       </c>
       <c r="C12" s="5">
-        <v>14.2</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -547,7 +547,7 @@
         <v>2016</v>
       </c>
       <c r="C13" s="5">
-        <v>13.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -558,7 +558,7 @@
         <v>2017</v>
       </c>
       <c r="C14" s="5">
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -569,7 +569,7 @@
         <v>2018</v>
       </c>
       <c r="C15" s="5">
-        <v>10.8</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -580,7 +580,7 @@
         <v>2019</v>
       </c>
       <c r="C16" s="5">
-        <v>9.6999999999999993</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -591,7 +591,7 @@
         <v>2020</v>
       </c>
       <c r="C17" s="5">
-        <v>8.5</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -613,7 +613,7 @@
         <v>2006</v>
       </c>
       <c r="C19" s="5">
-        <v>29</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -624,7 +624,7 @@
         <v>2007</v>
       </c>
       <c r="C20" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -635,7 +635,7 @@
         <v>2008</v>
       </c>
       <c r="C21" s="5">
-        <v>27</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -646,7 +646,7 @@
         <v>2009</v>
       </c>
       <c r="C22" s="5">
-        <v>26</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -657,7 +657,7 @@
         <v>2010</v>
       </c>
       <c r="C23" s="5">
-        <v>25</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -668,7 +668,7 @@
         <v>2011</v>
       </c>
       <c r="C24" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -679,7 +679,7 @@
         <v>2012</v>
       </c>
       <c r="C25" s="5">
-        <v>23</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -701,7 +701,7 @@
         <v>2014</v>
       </c>
       <c r="C27" s="5">
-        <v>21</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -712,7 +712,7 @@
         <v>2015</v>
       </c>
       <c r="C28" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="C29" s="5">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -734,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="C30" s="5">
-        <v>18</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -745,7 +745,7 @@
         <v>2018</v>
       </c>
       <c r="C31" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -756,7 +756,7 @@
         <v>2019</v>
       </c>
       <c r="C32" s="5">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -789,7 +789,7 @@
         <v>2006</v>
       </c>
       <c r="C35" s="5">
-        <v>34</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -800,7 +800,7 @@
         <v>2007</v>
       </c>
       <c r="C36" s="5">
-        <v>33</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -822,7 +822,7 @@
         <v>2009</v>
       </c>
       <c r="C38" s="5">
-        <v>31</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -833,7 +833,7 @@
         <v>2010</v>
       </c>
       <c r="C39" s="5">
-        <v>30</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -855,7 +855,7 @@
         <v>2012</v>
       </c>
       <c r="C41" s="5">
-        <v>28</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -866,7 +866,7 @@
         <v>2013</v>
       </c>
       <c r="C42" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -877,7 +877,7 @@
         <v>2014</v>
       </c>
       <c r="C43" s="5">
-        <v>26</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -888,7 +888,7 @@
         <v>2015</v>
       </c>
       <c r="C44" s="5">
-        <v>25</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -910,7 +910,7 @@
         <v>2017</v>
       </c>
       <c r="C46" s="5">
-        <v>23</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
         <v>2018</v>
       </c>
       <c r="C47" s="5">
-        <v>22</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -943,7 +943,7 @@
         <v>2020</v>
       </c>
       <c r="C49" s="5">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -965,7 +965,7 @@
         <v>2006</v>
       </c>
       <c r="C51" s="5">
-        <v>31.1</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -976,7 +976,7 @@
         <v>2007</v>
       </c>
       <c r="C52" s="5">
-        <v>30.1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -987,7 +987,7 @@
         <v>2008</v>
       </c>
       <c r="C53" s="5">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -998,7 +998,7 @@
         <v>2009</v>
       </c>
       <c r="C54" s="5">
-        <v>28.3</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1009,7 +1009,7 @@
         <v>2010</v>
       </c>
       <c r="C55" s="5">
-        <v>27.3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1020,7 +1020,7 @@
         <v>2011</v>
       </c>
       <c r="C56" s="5">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1031,7 +1031,7 @@
         <v>2012</v>
       </c>
       <c r="C57" s="5">
-        <v>25.5</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1042,7 +1042,7 @@
         <v>2013</v>
       </c>
       <c r="C58" s="5">
-        <v>24.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1053,7 +1053,7 @@
         <v>2014</v>
       </c>
       <c r="C59" s="5">
-        <v>23.6</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1064,7 +1064,7 @@
         <v>2015</v>
       </c>
       <c r="C60" s="5">
-        <v>22.7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1075,7 +1075,7 @@
         <v>2016</v>
       </c>
       <c r="C61" s="5">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1086,7 +1086,7 @@
         <v>2017</v>
       </c>
       <c r="C62" s="5">
-        <v>20.8</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1097,7 +1097,7 @@
         <v>2018</v>
       </c>
       <c r="C63" s="5">
-        <v>19.899999999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1108,7 +1108,7 @@
         <v>2019</v>
       </c>
       <c r="C64" s="5">
-        <v>18.899999999999999</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1119,7 +1119,7 @@
         <v>2020</v>
       </c>
       <c r="C65" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
